--- a/water_quality_prediction/data/mini_sample/의암호_2019.xlsx
+++ b/water_quality_prediction/data/mini_sample/의암호_2019.xlsx
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,7 +443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -517,10 +517,10 @@
         <v>0.7</v>
       </c>
       <c r="H2" s="1">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>1.4690000000000001</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1">
         <v>1E-3</v>
@@ -552,10 +552,10 @@
         <v>0.8</v>
       </c>
       <c r="H3" s="1">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>1.526</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1">
         <v>2E-3</v>
@@ -587,10 +587,10 @@
         <v>0.8</v>
       </c>
       <c r="H4" s="1">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>1.623</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1">
         <v>2E-3</v>
@@ -622,10 +622,10 @@
         <v>0.8</v>
       </c>
       <c r="H5" s="1">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>1.637</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1">
         <v>3.0000000000000001E-3</v>
@@ -657,10 +657,10 @@
         <v>0.8</v>
       </c>
       <c r="H6" s="1">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>1.5629999999999999</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1">
         <v>2E-3</v>
